--- a/EQsheet2.xlsx
+++ b/EQsheet2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="230">
   <si>
     <t>PTFE (virgin)</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>cc/min</t>
+  </si>
+  <si>
+    <t>l/min</t>
   </si>
   <si>
     <t>Hastelloy</t>
@@ -1556,7 +1559,7 @@
   <dimension ref="A1:Q4549"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B260" sqref="B260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1571,22 +1574,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1600,13 +1603,13 @@
         <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1620,13 +1623,13 @@
         <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1640,13 +1643,13 @@
         <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1660,13 +1663,13 @@
         <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1680,13 +1683,13 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1700,13 +1703,13 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1720,13 +1723,13 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1740,13 +1743,13 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1760,13 +1763,13 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G10" s="2"/>
     </row>
@@ -1781,13 +1784,13 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1801,13 +1804,13 @@
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G12" s="2"/>
     </row>
@@ -1822,13 +1825,13 @@
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G13" s="2"/>
     </row>
@@ -1843,13 +1846,13 @@
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G14" s="2"/>
     </row>
@@ -1864,13 +1867,13 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G15" s="2"/>
     </row>
@@ -1885,13 +1888,13 @@
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1905,13 +1908,13 @@
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1925,13 +1928,13 @@
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1945,13 +1948,13 @@
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E19" t="s">
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1965,13 +1968,13 @@
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E20" t="s">
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1985,13 +1988,13 @@
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E21" t="s">
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2005,13 +2008,13 @@
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E22" t="s">
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2025,13 +2028,13 @@
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E23" t="s">
         <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2045,13 +2048,13 @@
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s">
         <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2065,13 +2068,13 @@
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E25" t="s">
         <v>3</v>
       </c>
       <c r="F25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2085,13 +2088,13 @@
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E26" t="s">
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2105,13 +2108,13 @@
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E27" t="s">
         <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2125,13 +2128,13 @@
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E28" t="s">
         <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2145,13 +2148,13 @@
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E29" t="s">
         <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2165,13 +2168,13 @@
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E30" t="s">
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2185,13 +2188,13 @@
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E31" t="s">
         <v>5</v>
       </c>
       <c r="F31" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2205,13 +2208,13 @@
         <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E32" t="s">
         <v>2</v>
       </c>
       <c r="F32" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2225,33 +2228,33 @@
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E33" t="s">
         <v>3</v>
       </c>
       <c r="F33" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1.4</v>
       </c>
-      <c r="B34" t="e">
-        <v>#VALUE!</v>
+      <c r="B34" t="s">
+        <v>8</v>
       </c>
       <c r="C34">
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E34" t="s">
         <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2265,13 +2268,13 @@
         <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E35" t="s">
         <v>3</v>
       </c>
       <c r="F35" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2285,13 +2288,13 @@
         <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E36" t="s">
         <v>3</v>
       </c>
       <c r="F36" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2305,13 +2308,13 @@
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E37" t="s">
         <v>3</v>
       </c>
       <c r="F37" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2325,13 +2328,13 @@
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E38" t="s">
         <v>5</v>
       </c>
       <c r="F38" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2345,13 +2348,13 @@
         <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E39" t="s">
         <v>3</v>
       </c>
       <c r="F39" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2365,13 +2368,13 @@
         <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E40" t="s">
         <v>3</v>
       </c>
       <c r="F40" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2385,13 +2388,13 @@
         <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E41" t="s">
         <v>3</v>
       </c>
       <c r="F41" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2405,13 +2408,13 @@
         <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E42" t="s">
         <v>3</v>
       </c>
       <c r="F42" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2425,13 +2428,13 @@
         <v>5</v>
       </c>
       <c r="D43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E43" t="s">
         <v>3</v>
       </c>
       <c r="F43" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2445,13 +2448,13 @@
         <v>5</v>
       </c>
       <c r="D44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E44" t="s">
         <v>3</v>
       </c>
       <c r="F44" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2465,13 +2468,13 @@
         <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E45" t="s">
         <v>3</v>
       </c>
       <c r="F45" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2485,13 +2488,13 @@
         <v>5</v>
       </c>
       <c r="D46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E46" t="s">
         <v>3</v>
       </c>
       <c r="F46" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2505,13 +2508,13 @@
         <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E47" t="s">
         <v>3</v>
       </c>
       <c r="F47" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2525,13 +2528,13 @@
         <v>100</v>
       </c>
       <c r="D48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F48" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2545,13 +2548,13 @@
         <v>50</v>
       </c>
       <c r="D49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F49" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2565,13 +2568,13 @@
         <v>100</v>
       </c>
       <c r="D50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E50" t="s">
         <v>5</v>
       </c>
       <c r="F50" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2585,13 +2588,13 @@
         <v>102</v>
       </c>
       <c r="D51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E51" t="s">
         <v>5</v>
       </c>
       <c r="F51" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2605,13 +2608,13 @@
         <v>150</v>
       </c>
       <c r="D52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E52" t="s">
         <v>5</v>
       </c>
       <c r="F52" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2625,13 +2628,13 @@
         <v>150</v>
       </c>
       <c r="D53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E53" t="s">
         <v>5</v>
       </c>
       <c r="F53" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2645,13 +2648,13 @@
         <v>100</v>
       </c>
       <c r="D54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E54" t="s">
         <v>0</v>
       </c>
       <c r="F54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2665,13 +2668,13 @@
         <v>102</v>
       </c>
       <c r="D55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E55" t="s">
         <v>5</v>
       </c>
       <c r="F55" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2685,13 +2688,13 @@
         <v>102</v>
       </c>
       <c r="D56" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E56" t="s">
         <v>5</v>
       </c>
       <c r="F56" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2705,13 +2708,13 @@
         <v>150</v>
       </c>
       <c r="D57" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E57" t="s">
         <v>5</v>
       </c>
       <c r="F57" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2725,13 +2728,13 @@
         <v>150</v>
       </c>
       <c r="D58" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E58" t="s">
         <v>5</v>
       </c>
       <c r="F58" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2745,13 +2748,13 @@
         <v>30</v>
       </c>
       <c r="D59" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F59" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2765,13 +2768,13 @@
         <v>150</v>
       </c>
       <c r="D60" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F60" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2785,13 +2788,13 @@
         <v>50</v>
       </c>
       <c r="D61" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E61" t="s">
         <v>3</v>
       </c>
       <c r="F61" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2805,13 +2808,13 @@
         <v>50</v>
       </c>
       <c r="D62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E62" t="s">
         <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2825,13 +2828,13 @@
         <v>50</v>
       </c>
       <c r="D63" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F63" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2845,13 +2848,13 @@
         <v>75</v>
       </c>
       <c r="D64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E64" t="s">
         <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2865,13 +2868,13 @@
         <v>75</v>
       </c>
       <c r="D65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E65" t="s">
         <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2885,13 +2888,13 @@
         <v>15</v>
       </c>
       <c r="D66" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E66" t="s">
         <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2905,13 +2908,13 @@
         <v>200</v>
       </c>
       <c r="D67" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E67" t="s">
         <v>5</v>
       </c>
       <c r="F67" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2925,13 +2928,13 @@
         <v>100</v>
       </c>
       <c r="D68" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E68" t="s">
         <v>5</v>
       </c>
       <c r="F68" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2945,13 +2948,13 @@
         <v>100</v>
       </c>
       <c r="D69" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E69" t="s">
         <v>5</v>
       </c>
       <c r="F69" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2965,13 +2968,13 @@
         <v>100</v>
       </c>
       <c r="D70" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E70" t="s">
         <v>5</v>
       </c>
       <c r="F70" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2985,33 +2988,33 @@
         <v>150</v>
       </c>
       <c r="D71" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E71" t="s">
         <v>5</v>
       </c>
       <c r="F71" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1.3</v>
       </c>
-      <c r="B72" t="e">
-        <v>#VALUE!</v>
+      <c r="B72" t="s">
+        <v>11</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E72" t="s">
         <v>0</v>
       </c>
       <c r="F72" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -3025,13 +3028,13 @@
         <v>30</v>
       </c>
       <c r="D73" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E73" t="s">
         <v>2</v>
       </c>
       <c r="F73" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -3045,13 +3048,13 @@
         <v>30</v>
       </c>
       <c r="D74" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E74" t="s">
         <v>2</v>
       </c>
       <c r="F74" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -3065,13 +3068,13 @@
         <v>30</v>
       </c>
       <c r="D75" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E75" t="s">
         <v>2</v>
       </c>
       <c r="F75" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -3085,13 +3088,13 @@
         <v>30</v>
       </c>
       <c r="D76" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E76" t="s">
         <v>5</v>
       </c>
       <c r="F76" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -3105,13 +3108,13 @@
         <v>200</v>
       </c>
       <c r="D77" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E77" t="s">
         <v>5</v>
       </c>
       <c r="F77" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -3125,13 +3128,13 @@
         <v>300</v>
       </c>
       <c r="D78" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E78" t="s">
         <v>5</v>
       </c>
       <c r="F78" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -3145,13 +3148,13 @@
         <v>300</v>
       </c>
       <c r="D79" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E79" t="s">
         <v>3</v>
       </c>
       <c r="F79" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -3165,13 +3168,13 @@
         <v>400</v>
       </c>
       <c r="D80" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E80" t="s">
         <v>5</v>
       </c>
       <c r="F80" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -3185,13 +3188,13 @@
         <v>500</v>
       </c>
       <c r="D81" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E81" t="s">
         <v>5</v>
       </c>
       <c r="F81" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -3205,13 +3208,13 @@
         <v>100</v>
       </c>
       <c r="D82" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E82" t="s">
         <v>5</v>
       </c>
       <c r="F82" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -3225,13 +3228,13 @@
         <v>15</v>
       </c>
       <c r="D83" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E83" t="s">
         <v>0</v>
       </c>
       <c r="F83" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -3245,13 +3248,13 @@
         <v>250</v>
       </c>
       <c r="D84" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E84" t="s">
         <v>6</v>
       </c>
       <c r="F84" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -3265,13 +3268,13 @@
         <v>50</v>
       </c>
       <c r="D85" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E85" t="s">
         <v>5</v>
       </c>
       <c r="F85" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -3285,13 +3288,13 @@
         <v>150</v>
       </c>
       <c r="D86" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E86" t="s">
         <v>5</v>
       </c>
       <c r="F86" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -3305,13 +3308,13 @@
         <v>15</v>
       </c>
       <c r="D87" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E87" t="s">
         <v>5</v>
       </c>
       <c r="F87" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3325,13 +3328,13 @@
         <v>250</v>
       </c>
       <c r="D88" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E88" t="s">
         <v>5</v>
       </c>
       <c r="F88" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3345,13 +3348,13 @@
         <v>250</v>
       </c>
       <c r="D89" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E89" t="s">
         <v>5</v>
       </c>
       <c r="F89" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3365,13 +3368,13 @@
         <v>50</v>
       </c>
       <c r="D90" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E90" t="s">
         <v>0</v>
       </c>
       <c r="F90" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3385,13 +3388,13 @@
         <v>400</v>
       </c>
       <c r="D91" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E91" t="s">
         <v>5</v>
       </c>
       <c r="F91" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3405,13 +3408,13 @@
         <v>500</v>
       </c>
       <c r="D92" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E92" t="s">
         <v>3</v>
       </c>
       <c r="F92" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3425,13 +3428,13 @@
         <v>150</v>
       </c>
       <c r="D93" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E93" t="s">
         <v>5</v>
       </c>
       <c r="F93" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3445,13 +3448,13 @@
         <v>250</v>
       </c>
       <c r="D94" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E94" t="s">
         <v>5</v>
       </c>
       <c r="F94" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3465,13 +3468,13 @@
         <v>30</v>
       </c>
       <c r="D95" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E95" t="s">
         <v>5</v>
       </c>
       <c r="F95" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3485,13 +3488,13 @@
         <v>50</v>
       </c>
       <c r="D96" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E96" t="s">
         <v>5</v>
       </c>
       <c r="F96" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3505,13 +3508,13 @@
         <v>100</v>
       </c>
       <c r="D97" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E97" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F97" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3525,13 +3528,13 @@
         <v>100</v>
       </c>
       <c r="D98" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F98" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3545,13 +3548,13 @@
         <v>100</v>
       </c>
       <c r="D99" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F99" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3565,13 +3568,13 @@
         <v>100</v>
       </c>
       <c r="D100" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F100" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3585,13 +3588,13 @@
         <v>100</v>
       </c>
       <c r="D101" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E101" t="s">
         <v>5</v>
       </c>
       <c r="F101" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3605,13 +3608,13 @@
         <v>300</v>
       </c>
       <c r="D102" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E102" t="s">
         <v>5</v>
       </c>
       <c r="F102" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3625,13 +3628,13 @@
         <v>3</v>
       </c>
       <c r="D103" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E103" t="s">
         <v>0</v>
       </c>
       <c r="F103" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3645,13 +3648,13 @@
         <v>1</v>
       </c>
       <c r="D104" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E104" t="s">
         <v>0</v>
       </c>
       <c r="F104" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3665,13 +3668,13 @@
         <v>100</v>
       </c>
       <c r="D105" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E105" t="s">
         <v>5</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3685,13 +3688,13 @@
         <v>350</v>
       </c>
       <c r="D106" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E106" t="s">
         <v>5</v>
       </c>
       <c r="F106" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3705,13 +3708,13 @@
         <v>100</v>
       </c>
       <c r="D107" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E107" t="s">
         <v>5</v>
       </c>
       <c r="F107" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3725,13 +3728,13 @@
         <v>150</v>
       </c>
       <c r="D108" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E108" t="s">
         <v>5</v>
       </c>
       <c r="F108" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3745,13 +3748,13 @@
         <v>30</v>
       </c>
       <c r="D109" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E109" t="s">
         <v>0</v>
       </c>
       <c r="F109" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3765,13 +3768,13 @@
         <v>50</v>
       </c>
       <c r="D110" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E110" t="s">
         <v>5</v>
       </c>
       <c r="F110" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3785,13 +3788,13 @@
         <v>60</v>
       </c>
       <c r="D111" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E111" t="s">
         <v>5</v>
       </c>
       <c r="F111" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3805,13 +3808,13 @@
         <v>1000</v>
       </c>
       <c r="D112" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E112" t="s">
         <v>4</v>
       </c>
       <c r="F112" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3825,13 +3828,13 @@
         <v>1500</v>
       </c>
       <c r="D113" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E113" t="s">
         <v>6</v>
       </c>
       <c r="F113" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3845,13 +3848,13 @@
         <v>500</v>
       </c>
       <c r="D114" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E114" t="s">
         <v>5</v>
       </c>
       <c r="F114" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3865,13 +3868,13 @@
         <v>600</v>
       </c>
       <c r="D115" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E115" t="s">
         <v>5</v>
       </c>
       <c r="F115" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3885,13 +3888,13 @@
         <v>3000</v>
       </c>
       <c r="D116" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E116" t="s">
         <v>5</v>
       </c>
       <c r="F116" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3905,13 +3908,13 @@
         <v>2000</v>
       </c>
       <c r="D117" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E117" t="s">
         <v>6</v>
       </c>
       <c r="F117" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3925,13 +3928,13 @@
         <v>1500</v>
       </c>
       <c r="D118" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E118" t="s">
         <v>4</v>
       </c>
       <c r="F118" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3945,13 +3948,13 @@
         <v>1500</v>
       </c>
       <c r="D119" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3965,13 +3968,13 @@
         <v>3000</v>
       </c>
       <c r="D120" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E120" t="s">
         <v>5</v>
       </c>
       <c r="F120" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -3985,13 +3988,13 @@
         <v>3000</v>
       </c>
       <c r="D121" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -4005,13 +4008,13 @@
         <v>1500</v>
       </c>
       <c r="D122" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E122" t="s">
         <v>5</v>
       </c>
       <c r="F122" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -4025,13 +4028,13 @@
         <v>1500</v>
       </c>
       <c r="D123" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E123" t="s">
         <v>5</v>
       </c>
       <c r="F123" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -4045,13 +4048,13 @@
         <v>1500</v>
       </c>
       <c r="D124" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E124" t="s">
         <v>5</v>
       </c>
       <c r="F124" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -4065,13 +4068,13 @@
         <v>2000</v>
       </c>
       <c r="D125" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E125" t="s">
         <v>6</v>
       </c>
       <c r="F125" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -4085,33 +4088,33 @@
         <v>3000</v>
       </c>
       <c r="D126" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E126" t="s">
         <v>5</v>
       </c>
       <c r="F126" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>0</v>
       </c>
-      <c r="B127" t="e">
-        <v>#VALUE!</v>
+      <c r="B127" t="s">
+        <v>9</v>
       </c>
       <c r="C127">
         <v>3000</v>
       </c>
       <c r="D127" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E127" t="s">
         <v>1</v>
       </c>
       <c r="F127" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -4125,13 +4128,13 @@
         <v>2250</v>
       </c>
       <c r="D128" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E128" t="s">
         <v>4</v>
       </c>
       <c r="F128" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -4145,13 +4148,13 @@
         <v>1500</v>
       </c>
       <c r="D129" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E129" t="s">
         <v>5</v>
       </c>
       <c r="F129" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G129" s="2"/>
     </row>
@@ -4166,13 +4169,13 @@
         <v>2000</v>
       </c>
       <c r="D130" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E130" t="s">
         <v>5</v>
       </c>
       <c r="F130" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G130" s="2"/>
     </row>
@@ -4187,13 +4190,13 @@
         <v>2250</v>
       </c>
       <c r="D131" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E131" t="s">
         <v>5</v>
       </c>
       <c r="F131" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -4207,13 +4210,13 @@
         <v>1500</v>
       </c>
       <c r="D132" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E132" t="s">
         <v>5</v>
       </c>
       <c r="F132" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -4227,13 +4230,13 @@
         <v>1500</v>
       </c>
       <c r="D133" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E133" t="s">
         <v>6</v>
       </c>
       <c r="F133" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -4247,13 +4250,13 @@
         <v>1500</v>
       </c>
       <c r="D134" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E134" t="s">
         <v>6</v>
       </c>
       <c r="F134" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -4267,13 +4270,13 @@
         <v>2000</v>
       </c>
       <c r="D135" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E135" t="s">
         <v>1</v>
       </c>
       <c r="F135" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -4287,13 +4290,13 @@
         <v>3000</v>
       </c>
       <c r="D136" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E136" t="s">
         <v>4</v>
       </c>
       <c r="F136" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -4307,13 +4310,13 @@
         <v>3000</v>
       </c>
       <c r="D137" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E137" t="s">
         <v>4</v>
       </c>
       <c r="F137" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -4327,13 +4330,13 @@
         <v>1500</v>
       </c>
       <c r="D138" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E138" t="s">
         <v>5</v>
       </c>
       <c r="F138" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -4347,13 +4350,13 @@
         <v>2250</v>
       </c>
       <c r="D139" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E139" t="s">
         <v>5</v>
       </c>
       <c r="F139" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -4367,13 +4370,13 @@
         <v>2000</v>
       </c>
       <c r="D140" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E140" t="s">
         <v>5</v>
       </c>
       <c r="F140" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -4387,13 +4390,13 @@
         <v>6000</v>
       </c>
       <c r="D141" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E141" t="s">
         <v>4</v>
       </c>
       <c r="F141" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -4407,13 +4410,13 @@
         <v>5000</v>
       </c>
       <c r="D142" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E142" t="s">
         <v>4</v>
       </c>
       <c r="F142" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -4427,13 +4430,13 @@
         <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E143" t="s">
         <v>0</v>
       </c>
       <c r="F143" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -4447,13 +4450,13 @@
         <v>200</v>
       </c>
       <c r="D144" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E144" t="s">
         <v>5</v>
       </c>
       <c r="F144" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -4467,13 +4470,13 @@
         <v>1000</v>
       </c>
       <c r="D145" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E145" t="s">
         <v>5</v>
       </c>
       <c r="F145" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -4487,13 +4490,13 @@
         <v>290</v>
       </c>
       <c r="D146" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E146" t="s">
         <v>5</v>
       </c>
       <c r="F146" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -4507,13 +4510,13 @@
         <v>500</v>
       </c>
       <c r="D147" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E147" t="s">
         <v>5</v>
       </c>
       <c r="F147" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -4527,13 +4530,13 @@
         <v>500</v>
       </c>
       <c r="D148" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E148" t="s">
         <v>5</v>
       </c>
       <c r="F148" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -4547,13 +4550,13 @@
         <v>500</v>
       </c>
       <c r="D149" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E149" t="s">
         <v>5</v>
       </c>
       <c r="F149" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -4567,13 +4570,13 @@
         <v>500</v>
       </c>
       <c r="D150" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E150" t="s">
         <v>5</v>
       </c>
       <c r="F150" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -4587,13 +4590,13 @@
         <v>700</v>
       </c>
       <c r="D151" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E151" t="s">
         <v>5</v>
       </c>
       <c r="F151" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -4607,13 +4610,13 @@
         <v>1000</v>
       </c>
       <c r="D152" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E152" t="s">
         <v>5</v>
       </c>
       <c r="F152" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -4627,13 +4630,13 @@
         <v>1000</v>
       </c>
       <c r="D153" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E153" t="s">
         <v>6</v>
       </c>
       <c r="F153" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -4647,13 +4650,13 @@
         <v>100</v>
       </c>
       <c r="D154" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E154" t="s">
         <v>6</v>
       </c>
       <c r="F154" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -4667,13 +4670,13 @@
         <v>500</v>
       </c>
       <c r="D155" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E155" t="s">
         <v>6</v>
       </c>
       <c r="F155" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -4687,13 +4690,13 @@
         <v>1000</v>
       </c>
       <c r="D156" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E156" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F156" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -4707,13 +4710,13 @@
         <v>1000</v>
       </c>
       <c r="D157" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E157" t="s">
         <v>6</v>
       </c>
       <c r="F157" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -4727,13 +4730,13 @@
         <v>2500</v>
       </c>
       <c r="D158" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E158" t="s">
         <v>6</v>
       </c>
       <c r="F158" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G158" s="2"/>
     </row>
@@ -4748,13 +4751,13 @@
         <v>1000</v>
       </c>
       <c r="D159" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E159" t="s">
         <v>5</v>
       </c>
       <c r="F159" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G159" s="2"/>
     </row>
@@ -4769,13 +4772,13 @@
         <v>1000</v>
       </c>
       <c r="D160" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E160" t="s">
         <v>5</v>
       </c>
       <c r="F160" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -4789,13 +4792,13 @@
         <v>150</v>
       </c>
       <c r="D161" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E161" t="s">
         <v>0</v>
       </c>
       <c r="F161" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -4809,13 +4812,13 @@
         <v>500</v>
       </c>
       <c r="D162" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E162" t="s">
         <v>5</v>
       </c>
       <c r="F162" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -4829,13 +4832,13 @@
         <v>500</v>
       </c>
       <c r="D163" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E163" t="s">
         <v>5</v>
       </c>
       <c r="F163" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -4849,13 +4852,13 @@
         <v>500</v>
       </c>
       <c r="D164" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E164" t="s">
         <v>6</v>
       </c>
       <c r="F164" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -4869,13 +4872,13 @@
         <v>1000</v>
       </c>
       <c r="D165" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E165" t="s">
         <v>5</v>
       </c>
       <c r="F165" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -4889,13 +4892,13 @@
         <v>1000</v>
       </c>
       <c r="D166" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E166" t="s">
         <v>5</v>
       </c>
       <c r="F166" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -4909,13 +4912,13 @@
         <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E167" t="s">
         <v>7</v>
       </c>
       <c r="F167" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -4923,19 +4926,19 @@
         <v>1</v>
       </c>
       <c r="B168" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C168">
         <v>150</v>
       </c>
       <c r="D168" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E168" t="s">
         <v>5</v>
       </c>
       <c r="F168" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -4949,13 +4952,13 @@
         <v>15</v>
       </c>
       <c r="D169" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E169" t="s">
         <v>0</v>
       </c>
       <c r="F169" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -4969,13 +4972,13 @@
         <v>15</v>
       </c>
       <c r="D170" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E170" t="s">
         <v>0</v>
       </c>
       <c r="F170" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -4989,13 +4992,13 @@
         <v>1</v>
       </c>
       <c r="D171" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E171" t="s">
         <v>0</v>
       </c>
       <c r="F171" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -5009,13 +5012,13 @@
         <v>300</v>
       </c>
       <c r="D172" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E172" t="s">
         <v>5</v>
       </c>
       <c r="F172" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -5029,13 +5032,13 @@
         <v>30</v>
       </c>
       <c r="D173" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E173" t="s">
         <v>0</v>
       </c>
       <c r="F173" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -5049,13 +5052,13 @@
         <v>30</v>
       </c>
       <c r="D174" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E174" t="s">
         <v>0</v>
       </c>
       <c r="F174" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -5069,13 +5072,13 @@
         <v>30</v>
       </c>
       <c r="D175" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E175" t="s">
         <v>7</v>
       </c>
       <c r="F175" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -5089,13 +5092,13 @@
         <v>500</v>
       </c>
       <c r="D176" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E176" t="s">
         <v>5</v>
       </c>
       <c r="F176" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -5109,13 +5112,13 @@
         <v>500</v>
       </c>
       <c r="D177" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E177" t="s">
         <v>5</v>
       </c>
       <c r="F177" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -5129,13 +5132,13 @@
         <v>750</v>
       </c>
       <c r="D178" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E178" t="s">
         <v>5</v>
       </c>
       <c r="F178" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -5149,13 +5152,13 @@
         <v>1000</v>
       </c>
       <c r="D179" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E179" t="s">
         <v>5</v>
       </c>
       <c r="F179" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -5169,13 +5172,13 @@
         <v>1000</v>
       </c>
       <c r="D180" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E180" t="s">
         <v>5</v>
       </c>
       <c r="F180" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -5189,13 +5192,13 @@
         <v>1000</v>
       </c>
       <c r="D181" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E181" t="s">
         <v>5</v>
       </c>
       <c r="F181" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -5209,13 +5212,13 @@
         <v>1000</v>
       </c>
       <c r="D182" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E182" t="s">
         <v>5</v>
       </c>
       <c r="F182" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -5229,13 +5232,13 @@
         <v>750</v>
       </c>
       <c r="D183" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E183" t="s">
         <v>5</v>
       </c>
       <c r="F183" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -5249,13 +5252,13 @@
         <v>30</v>
       </c>
       <c r="D184" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E184" t="s">
         <v>0</v>
       </c>
       <c r="F184" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -5269,13 +5272,13 @@
         <v>1000</v>
       </c>
       <c r="D185" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E185" t="s">
         <v>5</v>
       </c>
       <c r="F185" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -5289,13 +5292,13 @@
         <v>1000</v>
       </c>
       <c r="D186" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E186" t="s">
         <v>5</v>
       </c>
       <c r="F186" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -5309,13 +5312,13 @@
         <v>1000</v>
       </c>
       <c r="D187" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E187" t="s">
         <v>5</v>
       </c>
       <c r="F187" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -5329,13 +5332,13 @@
         <v>1000</v>
       </c>
       <c r="D188" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E188" t="s">
         <v>5</v>
       </c>
       <c r="F188" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -5343,19 +5346,19 @@
         <v>0</v>
       </c>
       <c r="B189" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C189">
         <v>1000</v>
       </c>
       <c r="D189" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E189" t="s">
         <v>1</v>
       </c>
       <c r="F189" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -5369,13 +5372,13 @@
         <v>1000</v>
       </c>
       <c r="D190" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E190" t="s">
         <v>1</v>
       </c>
       <c r="F190" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -5389,13 +5392,13 @@
         <v>100</v>
       </c>
       <c r="D191" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E191" t="s">
         <v>5</v>
       </c>
       <c r="F191" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -5409,13 +5412,13 @@
         <v>100</v>
       </c>
       <c r="D192" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E192" t="s">
         <v>5</v>
       </c>
       <c r="F192" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -5429,13 +5432,13 @@
         <v>100</v>
       </c>
       <c r="D193" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E193" t="s">
         <v>5</v>
       </c>
       <c r="F193" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -5449,13 +5452,13 @@
         <v>150</v>
       </c>
       <c r="D194" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E194" t="s">
         <v>5</v>
       </c>
       <c r="F194" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -5469,13 +5472,13 @@
         <v>150</v>
       </c>
       <c r="D195" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E195" t="s">
         <v>5</v>
       </c>
       <c r="F195" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G195" s="2"/>
     </row>
@@ -5490,13 +5493,13 @@
         <v>150</v>
       </c>
       <c r="D196" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E196" t="s">
         <v>5</v>
       </c>
       <c r="F196" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -5510,13 +5513,13 @@
         <v>15</v>
       </c>
       <c r="D197" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E197" t="s">
         <v>0</v>
       </c>
       <c r="F197" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -5530,13 +5533,13 @@
         <v>15</v>
       </c>
       <c r="D198" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E198" t="s">
         <v>1</v>
       </c>
       <c r="F198" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -5550,13 +5553,13 @@
         <v>200</v>
       </c>
       <c r="D199" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E199" t="s">
         <v>5</v>
       </c>
       <c r="F199" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -5570,13 +5573,13 @@
         <v>200</v>
       </c>
       <c r="D200" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E200" t="s">
         <v>5</v>
       </c>
       <c r="F200" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -5590,13 +5593,13 @@
         <v>250</v>
       </c>
       <c r="D201" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E201" t="s">
         <v>5</v>
       </c>
       <c r="F201" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -5610,13 +5613,13 @@
         <v>500</v>
       </c>
       <c r="D202" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E202" t="s">
         <v>5</v>
       </c>
       <c r="F202" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -5630,13 +5633,13 @@
         <v>50</v>
       </c>
       <c r="D203" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E203" t="s">
         <v>0</v>
       </c>
       <c r="F203" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -5650,13 +5653,13 @@
         <v>1000</v>
       </c>
       <c r="D204" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E204" t="s">
         <v>5</v>
       </c>
       <c r="F204" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G204" s="2"/>
     </row>
@@ -5671,13 +5674,13 @@
         <v>100</v>
       </c>
       <c r="D205" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E205" t="s">
         <v>5</v>
       </c>
       <c r="F205" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G205" s="2"/>
     </row>
@@ -5692,13 +5695,13 @@
         <v>500</v>
       </c>
       <c r="D206" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E206" t="s">
         <v>5</v>
       </c>
       <c r="F206" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -5712,13 +5715,13 @@
         <v>1000</v>
       </c>
       <c r="D207" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E207" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F207" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -5732,13 +5735,13 @@
         <v>1000</v>
       </c>
       <c r="D208" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E208" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F208" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -5752,13 +5755,13 @@
         <v>15</v>
       </c>
       <c r="D209" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E209" t="s">
         <v>0</v>
       </c>
       <c r="F209" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -5772,13 +5775,13 @@
         <v>1000</v>
       </c>
       <c r="D210" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E210" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F210" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -5792,13 +5795,13 @@
         <v>1500</v>
       </c>
       <c r="D211" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E211" t="s">
         <v>5</v>
       </c>
       <c r="F211" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -5812,13 +5815,13 @@
         <v>1000</v>
       </c>
       <c r="D212" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E212" t="s">
         <v>5</v>
       </c>
       <c r="F212" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -5832,13 +5835,13 @@
         <v>2000</v>
       </c>
       <c r="D213" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E213" t="s">
         <v>5</v>
       </c>
       <c r="F213" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -5852,13 +5855,13 @@
         <v>200</v>
       </c>
       <c r="D214" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E214" t="s">
         <v>5</v>
       </c>
       <c r="F214" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -5872,53 +5875,53 @@
         <v>100</v>
       </c>
       <c r="D215" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E215" t="s">
         <v>5</v>
       </c>
       <c r="F215" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>0</v>
       </c>
-      <c r="B216" t="e">
-        <v>#VALUE!</v>
+      <c r="B216" t="s">
+        <v>9</v>
       </c>
       <c r="C216">
         <v>5000</v>
       </c>
       <c r="D216" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E216" t="s">
         <v>4</v>
       </c>
       <c r="F216" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>0</v>
       </c>
-      <c r="B217" t="e">
-        <v>#VALUE!</v>
+      <c r="B217" t="s">
+        <v>9</v>
       </c>
       <c r="C217">
         <v>5000</v>
       </c>
       <c r="D217" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E217" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F217" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -5932,13 +5935,13 @@
         <v>10000</v>
       </c>
       <c r="D218" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E218" t="s">
         <v>4</v>
       </c>
       <c r="F218" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -5952,13 +5955,13 @@
         <v>5000</v>
       </c>
       <c r="D219" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E219" t="s">
         <v>4</v>
       </c>
       <c r="F219" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -5972,13 +5975,13 @@
         <v>5000</v>
       </c>
       <c r="D220" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E220" t="s">
         <v>4</v>
       </c>
       <c r="F220" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
@@ -5992,13 +5995,13 @@
         <v>10000</v>
       </c>
       <c r="D221" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E221" t="s">
         <v>6</v>
       </c>
       <c r="F221" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
@@ -6012,13 +6015,13 @@
         <v>10000</v>
       </c>
       <c r="D222" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E222" t="s">
         <v>6</v>
       </c>
       <c r="F222" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
@@ -6032,13 +6035,13 @@
         <v>1000</v>
       </c>
       <c r="D223" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E223" t="s">
         <v>5</v>
       </c>
       <c r="F223" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
@@ -6052,13 +6055,13 @@
         <v>1500</v>
       </c>
       <c r="D224" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E224" t="s">
         <v>4</v>
       </c>
       <c r="F224" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
@@ -6072,13 +6075,13 @@
         <v>1000</v>
       </c>
       <c r="D225" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E225" t="s">
         <v>1</v>
       </c>
       <c r="F225" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -6092,13 +6095,13 @@
         <v>1000</v>
       </c>
       <c r="D226" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E226" t="s">
         <v>1</v>
       </c>
       <c r="F226" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
@@ -6106,19 +6109,19 @@
         <v>0</v>
       </c>
       <c r="B227" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C227">
         <v>250</v>
       </c>
       <c r="D227" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E227" t="s">
         <v>5</v>
       </c>
       <c r="F227" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -6132,13 +6135,13 @@
         <v>500</v>
       </c>
       <c r="D228" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E228" t="s">
         <v>1</v>
       </c>
       <c r="F228" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
@@ -6152,13 +6155,13 @@
         <v>1500</v>
       </c>
       <c r="D229" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E229" t="s">
         <v>5</v>
       </c>
       <c r="F229" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
@@ -6172,13 +6175,13 @@
         <v>2500</v>
       </c>
       <c r="D230" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E230" t="s">
         <v>5</v>
       </c>
       <c r="F230" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
@@ -6192,13 +6195,13 @@
         <v>2500</v>
       </c>
       <c r="D231" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E231" t="s">
         <v>5</v>
       </c>
       <c r="F231" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
@@ -6212,13 +6215,13 @@
         <v>2500</v>
       </c>
       <c r="D232" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E232" t="s">
         <v>6</v>
       </c>
       <c r="F232" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
@@ -6232,13 +6235,13 @@
         <v>500</v>
       </c>
       <c r="D233" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E233" t="s">
         <v>6</v>
       </c>
       <c r="F233" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
@@ -6252,13 +6255,13 @@
         <v>3000</v>
       </c>
       <c r="D234" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E234" t="s">
         <v>4</v>
       </c>
       <c r="F234" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -6272,33 +6275,33 @@
         <v>5000</v>
       </c>
       <c r="D235" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E235" t="s">
         <v>4</v>
       </c>
       <c r="F235" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>0</v>
       </c>
-      <c r="B236" t="e">
-        <v>#VALUE!</v>
+      <c r="B236" t="s">
+        <v>9</v>
       </c>
       <c r="C236">
         <v>5000</v>
       </c>
       <c r="D236" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E236" t="s">
         <v>4</v>
       </c>
       <c r="F236" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
@@ -6312,13 +6315,13 @@
         <v>5000</v>
       </c>
       <c r="D237" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E237" t="s">
         <v>4</v>
       </c>
       <c r="F237" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G237" s="2"/>
     </row>
@@ -6333,13 +6336,13 @@
         <v>5000</v>
       </c>
       <c r="D238" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E238" t="s">
         <v>1</v>
       </c>
       <c r="F238" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G238" s="2"/>
     </row>
@@ -6354,13 +6357,13 @@
         <v>5000</v>
       </c>
       <c r="D239" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E239" t="s">
         <v>1</v>
       </c>
       <c r="F239" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
@@ -6374,13 +6377,13 @@
         <v>5000</v>
       </c>
       <c r="D240" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E240" t="s">
         <v>4</v>
       </c>
       <c r="F240" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
@@ -6394,13 +6397,13 @@
         <v>6000</v>
       </c>
       <c r="D241" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E241" t="s">
         <v>6</v>
       </c>
       <c r="F241" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
@@ -6414,13 +6417,13 @@
         <v>5000</v>
       </c>
       <c r="D242" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E242" t="s">
         <v>4</v>
       </c>
       <c r="F242" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -6434,33 +6437,33 @@
         <v>2500</v>
       </c>
       <c r="D243" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E243" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F243" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>0</v>
       </c>
-      <c r="B244" t="e">
-        <v>#VALUE!</v>
+      <c r="B244" t="s">
+        <v>9</v>
       </c>
       <c r="C244">
         <v>1000</v>
       </c>
       <c r="D244" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E244" t="s">
         <v>6</v>
       </c>
       <c r="F244" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -6474,13 +6477,13 @@
         <v>200</v>
       </c>
       <c r="D245" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E245" t="s">
         <v>5</v>
       </c>
       <c r="F245" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -6494,13 +6497,13 @@
         <v>200</v>
       </c>
       <c r="D246" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E246" t="s">
         <v>6</v>
       </c>
       <c r="F246" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
@@ -6514,13 +6517,13 @@
         <v>250</v>
       </c>
       <c r="D247" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E247" t="s">
         <v>5</v>
       </c>
       <c r="F247" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
@@ -6534,13 +6537,13 @@
         <v>750</v>
       </c>
       <c r="D248" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E248" t="s">
         <v>6</v>
       </c>
       <c r="F248" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -6554,13 +6557,13 @@
         <v>2000</v>
       </c>
       <c r="D249" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E249" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F249" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -6574,13 +6577,13 @@
         <v>1000</v>
       </c>
       <c r="D250" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E250" t="s">
         <v>6</v>
       </c>
       <c r="F250" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -6594,13 +6597,13 @@
         <v>1000</v>
       </c>
       <c r="D251" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E251" t="s">
         <v>6</v>
       </c>
       <c r="F251" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
@@ -6614,13 +6617,13 @@
         <v>1500</v>
       </c>
       <c r="D252" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E252" t="s">
         <v>6</v>
       </c>
       <c r="F252" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
@@ -6634,13 +6637,13 @@
         <v>1500</v>
       </c>
       <c r="D253" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E253" t="s">
         <v>6</v>
       </c>
       <c r="F253" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
@@ -6654,13 +6657,13 @@
         <v>2000</v>
       </c>
       <c r="D254" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E254" t="s">
         <v>5</v>
       </c>
       <c r="F254" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
@@ -6674,33 +6677,33 @@
         <v>2000</v>
       </c>
       <c r="D255" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E255" t="s">
         <v>6</v>
       </c>
       <c r="F255" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>0</v>
       </c>
-      <c r="B256" t="e">
-        <v>#VALUE!</v>
+      <c r="B256" t="s">
+        <v>9</v>
       </c>
       <c r="C256">
         <v>250</v>
       </c>
       <c r="D256" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E256" t="s">
         <v>6</v>
       </c>
       <c r="F256" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
@@ -6714,13 +6717,13 @@
         <v>3000</v>
       </c>
       <c r="D257" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E257" t="s">
         <v>6</v>
       </c>
       <c r="F257" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
@@ -6734,33 +6737,33 @@
         <v>750</v>
       </c>
       <c r="D258" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E258" t="s">
         <v>5</v>
       </c>
       <c r="F258" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>0</v>
       </c>
-      <c r="B259" t="e">
-        <v>#VALUE!</v>
+      <c r="B259" t="s">
+        <v>9</v>
       </c>
       <c r="C259">
         <v>3000</v>
       </c>
       <c r="D259" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E259" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F259" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
